--- a/data/trans_bre/P71_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.6559256325266244</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.488620629706897</v>
+        <v>-1.488620629706896</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9793944176348085</v>
@@ -649,7 +649,7 @@
         <v>0.05282178127891977</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2834042876074856</v>
+        <v>-0.2834042876074855</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.556682113869992</v>
+        <v>1.911633252704038</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.965153754338635</v>
+        <v>-6.131064387026555</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.139557958703589</v>
+        <v>-4.254966403943193</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.433967051429112</v>
+        <v>-3.802205142252618</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2807348451639687</v>
+        <v>0.2117009194152816</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3591269419726358</v>
+        <v>-0.3527283622304607</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2875828281230757</v>
+        <v>-0.2999717814152941</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6153618798583325</v>
+        <v>-0.5739718677399116</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.37621394000165</v>
+        <v>11.16419412222527</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.095356828917734</v>
+        <v>5.177372367491384</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.102520546561491</v>
+        <v>5.713048330460367</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7615936447162245</v>
+        <v>1.332285739883323</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.129929805902284</v>
+        <v>2.083343862844487</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3942127052753681</v>
+        <v>0.4152192455837246</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5060146914437276</v>
+        <v>0.5597305587744714</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.219502105210005</v>
+        <v>0.4587157138808182</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.932640992912944</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.998332221106075</v>
+        <v>2.998332221106077</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5441070605408561</v>
@@ -749,7 +749,7 @@
         <v>0.1308393031330058</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8071201382206038</v>
+        <v>0.8071201382206045</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.55919264675707</v>
+        <v>1.698310422776676</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.860414022559145</v>
+        <v>-1.919738522608906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.379383977456659</v>
+        <v>-3.662316901457471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4007669357318508</v>
+        <v>0.4554254753743455</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1095794580555505</v>
+        <v>0.1055653213300211</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1224571480065656</v>
+        <v>-0.118496604974123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1314567857236611</v>
+        <v>-0.1385386898602381</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04091727586281313</v>
+        <v>0.02611578474964046</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.50417462357897</v>
+        <v>12.02097075510964</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.364873909895319</v>
+        <v>9.235347908998252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.914229845768837</v>
+        <v>9.114453095523146</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.690720281930348</v>
+        <v>5.852903860663935</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.272102965441551</v>
+        <v>1.208682749443914</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8103627577564587</v>
+        <v>0.8197947860237862</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5163194993949913</v>
+        <v>0.4766341488893816</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.17849626468722</v>
+        <v>2.181800773184864</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-3.759208638582018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.447192750727283</v>
+        <v>-1.447192750727277</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4194326472554976</v>
@@ -849,7 +849,7 @@
         <v>-0.1009118508977107</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1075015739246879</v>
+        <v>-0.1075015739246875</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02072975591397756</v>
+        <v>-0.06419884084523751</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.50833072496733</v>
+        <v>-11.74081474025734</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.99792105112909</v>
+        <v>-12.16539668478643</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.211500228989307</v>
+        <v>-6.737283981453778</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.01780723779724097</v>
+        <v>-0.01445121091909335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3304642909241882</v>
+        <v>-0.328839104692402</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3097262511863653</v>
+        <v>-0.3143312347965145</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4056915387259641</v>
+        <v>-0.4372219462770731</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.5924370497653</v>
+        <v>13.73972094766066</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.526154723022598</v>
+        <v>2.00004622967607</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.841597252235091</v>
+        <v>5.024344423429078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.532801366204301</v>
+        <v>3.364938580196661</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.006276400120116</v>
+        <v>1.050049408122294</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04803681435220918</v>
+        <v>0.0620382415928042</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1378126492386485</v>
+        <v>0.1361550473150513</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4097831545252724</v>
+        <v>0.3017094350802805</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5089473480640004</v>
+        <v>-0.8113018312734656</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.732282560968785</v>
+        <v>-6.16863601759823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.704946266141929</v>
+        <v>-4.452742820213365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.301995034615457</v>
+        <v>-2.370908372247857</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02246941677262353</v>
+        <v>-0.035833920063989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1639113356502527</v>
+        <v>-0.1549363939243281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1125205713273335</v>
+        <v>-0.1084903022392224</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1322073387231756</v>
+        <v>-0.1438621601892658</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.494308916265351</v>
+        <v>7.561892803469504</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.668431264520978</v>
+        <v>2.851132592803122</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.245837844245921</v>
+        <v>4.302224347017786</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.96894303881655</v>
+        <v>3.704146374107364</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3491963848284862</v>
+        <v>0.3500212017407832</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07443223209955506</v>
+        <v>0.08156250929572409</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1151040451289356</v>
+        <v>0.1169992148744573</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2913678026024485</v>
+        <v>0.2555523028839306</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.315757015414888</v>
+        <v>-5.61429271100179</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.103804855782218</v>
+        <v>-5.480514843788203</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3604290447723038</v>
+        <v>-0.1196942196538943</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.56907487449034</v>
+        <v>-5.103293285900123</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1417581498596996</v>
+        <v>-0.1502066788704631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1368838236526938</v>
+        <v>-0.1238525479973273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.006794378780991961</v>
+        <v>-0.002393275923222311</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1392984607664016</v>
+        <v>-0.1590912769483468</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.78713088240807</v>
+        <v>7.914484475318388</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.882922082156587</v>
+        <v>5.564751220191024</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.44347035200181</v>
+        <v>10.92605739968245</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.461674914942427</v>
+        <v>5.198391307202454</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2557427088120098</v>
+        <v>0.2698157873687488</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1507149579561387</v>
+        <v>0.1484701956168452</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2359424798309036</v>
+        <v>0.2467376616262913</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2118540111177783</v>
+        <v>0.2011894183896573</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>10.56049348556587</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.066411367472334</v>
+        <v>2.066411367472323</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.791725638498019</v>
@@ -1149,7 +1149,7 @@
         <v>0.4703267730591674</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1298206197087762</v>
+        <v>0.1298206197087755</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>16.27955209149644</v>
+        <v>16.10618894450102</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.735848662430102</v>
+        <v>5.15483886287506</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.635387229847481</v>
+        <v>4.631722061786527</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-7.294039613562302</v>
+        <v>-6.847716901229401</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.005328851934006</v>
+        <v>1.012549529121287</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1877886271021625</v>
+        <v>0.2054669155698969</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1594747323023821</v>
+        <v>0.1642022070429607</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2982661539483528</v>
+        <v>-0.2922347332453157</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>25.35479354668208</v>
+        <v>24.97765348611057</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>16.1674040103336</v>
+        <v>17.17114119386953</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.04103050293662</v>
+        <v>16.46176690128381</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.295915784155051</v>
+        <v>9.527188033990724</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.994745491808138</v>
+        <v>2.804228620510287</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.011796284155337</v>
+        <v>1.061572099570962</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8704566378831442</v>
+        <v>0.9047168962850419</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9935076312486518</v>
+        <v>1.015499870302659</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.230841052415644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2.604753676531948</v>
+        <v>2.604753676531946</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5363499447758725</v>
@@ -1249,7 +1249,7 @@
         <v>0.06649086056847504</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.183359090998846</v>
+        <v>0.1833590909988458</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.582738676391195</v>
+        <v>7.469803315226685</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.12686496907691</v>
+        <v>-1.203718028641883</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.06840687113825236</v>
+        <v>-0.236016682004388</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6561346624290835</v>
+        <v>0.8611981471615383</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3932192430157544</v>
+        <v>0.3833223344601653</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.03558319884874613</v>
+        <v>-0.03843918534655572</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.001529046555195659</v>
+        <v>-0.006749758116064522</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.03977505209495868</v>
+        <v>0.05451952486177311</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.78144650771811</v>
+        <v>11.6848668027696</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.590361541069521</v>
+        <v>3.482084405545311</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.678592955907741</v>
+        <v>4.599673149124808</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.307122317138044</v>
+        <v>4.417046802449477</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.68532206031233</v>
+        <v>0.6744760266613721</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1218507881513299</v>
+        <v>0.1177128403898769</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1473871795273783</v>
+        <v>0.1422452317308978</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.3201469936688658</v>
+        <v>0.3300432461680845</v>
       </c>
     </row>
     <row r="25">
